--- a/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
+++ b/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamyaolian/Documents/Work/Skill/Full_Stack/liamyaolian.github.io/articles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2019FF78-754A-9D47-BFFA-70400EAB02CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D878F3-3B0D-3A46-8F41-263D8530C0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
+    <workbookView xWindow="7940" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t xml:space="preserve">Issue class </t>
   </si>
@@ -49,18 +49,12 @@
     <t>Explanation</t>
   </si>
   <si>
-    <t>source and pipeline</t>
-  </si>
-  <si>
     <t>When the value exceeds 5000, the system will automatically cap it and save it as 5000 in the database.</t>
   </si>
   <si>
     <t>Understanding how the raw data are collected will help us identify data quality issues</t>
   </si>
   <si>
-    <t>syntactic</t>
-  </si>
-  <si>
     <t>inconsistent formats</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>Misspelling: "AAFES" and "AAFFS", both of which should refer to the same customer "AAFES"</t>
   </si>
   <si>
-    <t>schema/integrity</t>
-  </si>
-  <si>
     <t>data type</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>Values in the database are out of the normal range. For example, negative prices and costs may cause gross profit margin calculated to exceed 100%, which does not make sense. The system may generate negative revenue and cost when customers return products.</t>
   </si>
   <si>
-    <t>duplicates</t>
-  </si>
-  <si>
     <t>duplicates refer to the same entity</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
   </si>
   <si>
     <t>We may merge tables in the wrong way, causing duplicates</t>
-  </si>
-  <si>
-    <t>sampling</t>
   </si>
   <si>
     <t>not representative</t>
@@ -134,15 +119,9 @@
     <t>forget to eliminate outliners when constructing predictive models</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
     <t>Some machine learning models require variables are scaled.</t>
   </si>
   <si>
-    <t>distribution</t>
-  </si>
-  <si>
     <t xml:space="preserve">Some machine learning models require variable distributions to be Gaussian. </t>
   </si>
   <si>
@@ -152,10 +131,34 @@
     <t>© 2020 Liam Lian</t>
   </si>
   <si>
-    <t>correlation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Some machine learning models will have high variances if variables are correlated. </t>
+  </si>
+  <si>
+    <t>Source and pipeline</t>
+  </si>
+  <si>
+    <t>Syntactic</t>
+  </si>
+  <si>
+    <t>Schema/integrity</t>
+  </si>
+  <si>
+    <t>Duplicates</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Outliner</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Correlation</t>
   </si>
 </sst>
 </file>
@@ -263,15 +266,15 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499FD961-69A1-4040-A88D-69BDC20911ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62CD95B-1579-694A-B2EC-30196C223FD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -288,7 +291,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9486900" cy="10325100"/>
+          <a:ext cx="9486900" cy="10528300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -597,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2ECD60-771C-1C4D-A627-2C4257C75453}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+      <selection sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,27 +629,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -655,20 +658,20 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -676,28 +679,28 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -705,7 +708,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -713,32 +716,32 @@
     <row r="10" spans="1:7" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -746,26 +749,26 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -773,7 +776,7 @@
     <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
@@ -781,39 +784,47 @@
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
+++ b/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamyaolian/Documents/Work/Skill/Full_Stack/liamyaolian.github.io/articles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D878F3-3B0D-3A46-8F41-263D8530C0E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE052912-B685-1D47-807A-BEE98D2346EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">Issue class </t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Sampling</t>
-  </si>
-  <si>
-    <t>Outliner</t>
   </si>
   <si>
     <t>Scale</t>
@@ -266,15 +263,15 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62CD95B-1579-694A-B2EC-30196C223FD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E30119-6E15-0240-B59F-14D7FEC640D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -291,7 +288,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9486900" cy="10528300"/>
+          <a:ext cx="9486900" cy="10325100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2ECD60-771C-1C4D-A627-2C4257C75453}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,13 +786,15 @@
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -804,7 +803,7 @@
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -814,16 +813,6 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
     </row>

--- a/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
+++ b/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamyaolian/Documents/Work/Skill/Full_Stack/liamyaolian.github.io/articles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE052912-B685-1D47-807A-BEE98D2346EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CC6E2-CD6D-FE4E-8DAA-FF45811D205D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t xml:space="preserve">Issue class </t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>Sometimes missing values may be marked as 0, None, np.nan.</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2ECD60-771C-1C4D-A627-2C4257C75453}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="A1:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -702,12 +705,14 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="136" x14ac:dyDescent="0.2">
@@ -825,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7DA49-0F31-E540-9F9F-A235CBBEC7BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
+++ b/articles/data_quality_issue_checklist_Liam_Lian_20210108.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamyaolian/Documents/Work/Skill/Full_Stack/liamyaolian.github.io/articles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1CC6E2-CD6D-FE4E-8DAA-FF45811D205D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB3647C-3091-8D4E-836E-A3F3959D0498}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{33525B37-F6D3-3244-8741-1D60038E59E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -266,15 +266,15 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3E30119-6E15-0240-B59F-14D7FEC640D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D17882F-3AD7-6943-9F44-C532099C3D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -291,7 +291,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9486900" cy="10325100"/>
+          <a:ext cx="9486900" cy="10553700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2ECD60-771C-1C4D-A627-2C4257C75453}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7DA49-0F31-E540-9F9F-A235CBBEC7BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
